--- a/biology/Histoire de la zoologie et de la botanique/Liste_d'entomologistes_par_pays/Liste_d'entomologistes_par_pays.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_d'entomologistes_par_pays/Liste_d'entomologistes_par_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entomologistes par pays
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Toussaint von Charpentier (1779-1847)
 Maximilian Joseph Bastelberger (1851-1916), spécialiste des papillons
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Australie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alexander Walker Scott (1800-1883)
 Les Sœurs Scott: Harriett Scott(1830-1907), Helena Scott (1832-1910)</t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victor Apfelbeck (1859-1934, spécialiste des coléoptères)
 Josef Fahringer (1876-1950, spécialiste des hyménoptères)</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pierre Basilewsky (1913-1993), spécialiste mondial des carabes africains
 Ernest Candèze (1827-1898, cofondateur de la Société royale belge d’entomologie)
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Brésil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dmytro Zajciw (1897-1976)</t>
         </is>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Danemark</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Johan Christian Fabricius (1745-1808)</t>
         </is>
@@ -687,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,7 +729,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Harrison Gray Dyar (1866-1929)
 William Henry Edwards (1822-1909)
@@ -734,7 +760,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -752,7 +778,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Victor Audouin (1797-1841)
 Jean-Baptiste Alphonse Dechauffour de Boisduval (1799-1879)
@@ -787,7 +815,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -805,7 +833,9 @@
           <t>Italie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Camillo Acqua (1863-1936, spécialiste du Ver à soie)
 Carlo Alzona (1881-1961)</t>
@@ -818,7 +848,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,7 +866,9 @@
           <t>Kenya</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Thomas Risley Odhiambo (1931-2003)</t>
         </is>
@@ -848,7 +880,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -866,7 +898,9 @@
           <t>Norvège</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Embrik Strand (1876-1947)</t>
         </is>
@@ -878,7 +912,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -896,7 +930,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Czesław Bieżanko (1895-1986, spécialiste des papillons sud-américains)</t>
         </is>
@@ -908,7 +944,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,7 +962,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Robert McLachlan (1837-1904)
 Charles Rothschild (1877-1923, spécialiste des puces)
@@ -942,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -960,7 +998,9 @@
           <t>Russie</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dimitri Glazounov (1869-1914), cofondateur de la Revue Russe d'entomologie en 1901.</t>
         </is>
@@ -972,7 +1012,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,7 +1030,9 @@
           <t>Serbie</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mihailo Gradojevic (ou Mihajlo)
 Zoran Gradojevic</t>
@@ -1003,7 +1045,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27entomologistes_par_pays</t>
+          <t>Liste_d'entomologistes_par_pays</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1021,7 +1063,9 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">August Emil Holmgren (1829–1888), hyménoptériste
 Carl von Linné (1707-1778)
